--- a/117Docs/JobStatsBurnupChart2.xlsx
+++ b/117Docs/JobStatsBurnupChart2.xlsx
@@ -96,7 +96,7 @@
               <a:defRPr b="0"/>
             </a:pPr>
             <a:r>
-              <a:t>Story points, Total Points, Completed and Estimated work</a:t>
+              <a:t>Burnup Chart 2</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -196,11 +196,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1002754234"/>
-        <c:axId val="2006714908"/>
+        <c:axId val="1938168976"/>
+        <c:axId val="1696157777"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1002754234"/>
+        <c:axId val="1938168976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -232,10 +232,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2006714908"/>
+        <c:crossAx val="1696157777"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2006714908"/>
+        <c:axId val="1696157777"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -250,6 +250,23 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Story Points</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -266,7 +283,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1002754234"/>
+        <c:crossAx val="1938168976"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
